--- a/biology/Botanique/Jacques_Lambinon/Jacques_Lambinon.xlsx
+++ b/biology/Botanique/Jacques_Lambinon/Jacques_Lambinon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques (Ernest Joseph)  Lambinon (né à Namur le 28 septembre 1936 et mort à Liège le 14 novembre 2015) est un botaniste belge, professeur  à l'université de Liège et membre de l'académie royale des sciences, des lettres et des beaux-arts de Belgique[1],[2].
-Il est l'auteur principal de la Nouvelle flore de la Belgique, du Grand-Duché de Luxembourg, du nord de la France et des régions voisines utilisée par des milliers d'étudiants[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques (Ernest Joseph)  Lambinon (né à Namur le 28 septembre 1936 et mort à Liège le 14 novembre 2015) est un botaniste belge, professeur  à l'université de Liège et membre de l'académie royale des sciences, des lettres et des beaux-arts de Belgique,.
+Il est l'auteur principal de la Nouvelle flore de la Belgique, du Grand-Duché de Luxembourg, du nord de la France et des régions voisines utilisée par des milliers d'étudiants.
 il était un spécialiste reconnu de : 
 Taxonomie des plantes vasculaires d’Europe occidentale et du bassin méditerranéen,
-Conservation de la nature[3] (notamment problèmes des plantes introduites et réintroduites), vulgarisation scientifique de la botanique, nomenclature botanique,
+Conservation de la nature (notamment problèmes des plantes introduites et réintroduites), vulgarisation scientifique de la botanique, nomenclature botanique,
 Relations végétation-entomofaune (cécidologie, coévolution, pollinisation ...).
 Mycologie et lichénologie,
 Radioécologie
 Parmi ses très nombreuses fonctions, on peut citer son rôle dans la direction de l’herbarium (Plantes vasculaires) de l’Université de Liège.
-Il était membre de nombreux comités scientifiques comme celui de la Flore de Corse ou du Conservatoire botanique national de Bailleul[4].
+Il était membre de nombreux comités scientifiques comme celui de la Flore de Corse ou du Conservatoire botanique national de Bailleul.
 Rédacteur, correcteur et relecteur acharné, il était secrétaire de rédaction de "Lejeunia, Revue de Botanique", secrétaire de la Société pour l’Échange des Plantes vasculaires de l’Europe et du Bassin méditerranéen et correspondant (depuis 1983) du comité éditorial Med-Checklist (Genève &amp; Berlin).
 </t>
         </is>
@@ -521,7 +533,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est grand officier de l'Ordre de Léopold et grand officier de l'Ordre de la Couronne.
 </t>
@@ -552,7 +566,9 @@
           <t>Ouvrages et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Classement chronologique des publications (rédigé par Lambinon J.)
@@ -585,7 +601,7 @@
 Parmelia andreana  Müll. Arg. et Parmelia revoluta Flk. en Belgique. Bull. Soc. R. Bot. Belg., 92 : 229-235, 1960. (Lambinon J. &amp; Parmentier G.)
 Zoocécidies des départements de la Meuse et des Ardennes (France). Récoltes diverses (1954-1959). Bull. Soc. R. Bot. Belg., 92 : 255-263, 1960. (Lambinon J.)
 Quelques ptéridophytes des Alpes Maritimes. Bull. Soc. R. Bot. Belg., 92 : 265-268, 1960. (Lambinon J. &amp; Lawalrée A.)
-Asplenium viride à Esneux.  Bull. Soc. R. Bot. Belg,, 92 : 272 [Notes brèves], 1960. (Damblon J. &amp; Lambinon J.)
+Asplenium viride à Esneux.  Bull. Soc. R. Bot. Belg 92 : 272 [Notes brèves], 1960. (Damblon J. &amp; Lambinon J.)
 Adventices lainières récoltées dans la vallée de la Vesdre en 1959. Lejeunia, 23 : 149-154, 1960. (Lambinon J.,  Lawalrée A., van Ooststroom S. J. &amp; Reichgelt Th. J.)
 Contribution à l'étude de la flore mycologique de la  Haute et de la Moyenne Belgique. Champignons récoltés en 1959 au Sart Tilman et à Colonster.  Lejeunia, 23 : 158-168, 1960. (Lambinon J.)
 Groupements cryptogamiques et cryptogames épiphytiques observés en Belgique par J. J. Barkman. Lejeunia, 23 : 169-174, 1960. (Lambinon J.)
@@ -641,16 +657,16 @@
 Cinclidotus danubicus Schiffn. et Baumg. dans le Rhône à Avignon. Bull. Soc. R. Bot. Belg., 102 : 469 [Notes brèves], 1969. (Lambinon J.)
 Pour une théorie de la protection scientifique des sites naturels. Natur. Belges, 50 : 433-443, 1969. (Leclercq J., Lambinon J. &amp; Jeuniaux Ch.)
 Plantes rares, disparues ou menacées de disparition en Belgique : L'appauvrissement de la flore indigène. Minist. Agric., Adm. Eaux etForêts, Serv. Rés. Nat. Dom. Conserv. Nat., Trav., n° 4, 128 pp., 1969. En particulier : pp. 7–21 :  Delvosalle L., Demaret F., Lambinon J. &amp; Lawalrée A. :  L'appauvrissement de la flore belge depuis le milieu du XIXème siècle;  pp. 87–124 : Demaret F. &amp; Lambinon J. : Bryophytes rares, disparus ou menacés de disparition en Belgique. (Delvosalle L., Demaret F., Lambinon J. &amp; Lawalrée A.)
-Eléments d'organographie des Angiospermes. Natura Mosana, 22 : 1-80, 1969 [Reprint, 1975…à 1997]. (Lambinon J.)[5]
+Eléments d'organographie des Angiospermes. Natura Mosana, 22 : 1-80, 1969 [Reprint, 1975…à 1997]. (Lambinon J.)
 1970-1979
 La publication du volume 2 de "Flora Europaea". Quelques remarques d'ordre chorologique ou taxonomique. Natura Mosana, 22 : 81-93, 1970. (Duvigneaud J. &amp; Lambinon J.)
 Les Floralies liégeoises de 1968 et leur intérêt botanique. Natura Mosana, 22 : 96-98, 1970. (Damblon J. &amp; Lambinon J.)
 Bibliographie de l'Histoire naturelle en Belgique - B - Botanique. 1968. Suppl. à Natura Mosana, 22, n. 4, 38 pp., 1970. (Duvigneaud J. &amp; Lambinon J.)
 Responsabilités et devoirs des individus et des pouvoirs publics vis-à-vis de la conservation de la nature. Le Cèdre, n° 151 : 18-21, 1970. (Lambinon J.)
-Sarcodon versipellis (Fr.) Quél. en Belgique. Natura Mosana,, 23 : 36-37 [Trouvailles floristiques], 1970. (Lambinon J.)
+Sarcodon versipellis (Fr.) Quél. en Belgique. Natura Mosana 23 : 36-37 [Trouvailles floristiques], 1970. (Lambinon J.)
 Bibliographie de l'Histoire naturelle en Belgique - B - Botanique.  1969. Suppl. à Natura Mosana, 23, n. 1-2, 43 pp., 1970. (Duvigneaud J. &amp; Lambinon J.)
 Octodiceras fontanum (La Pyl.) Lindb. (Musci, Fissidentaceae) en Belgique. Bull. Soc. R. Bot. Belg., 104 : 57-63. (Lambinon J. &amp; Empain A.)
-Inventaire des sites. Province de Luxembourg. Administration de l'Urbanisme et de l'Aménagement du Territoire, Survey National, 177 pp. + 1 carte 1/100.000,, 1971. (Colard J. &amp; Lambinon J.)
+Inventaire des sites. Province de Luxembourg. Administration de l'Urbanisme et de l'Aménagement du Territoire, Survey National, 177 pp. + 1 carte 1/100.000 1971. (Colard J. &amp; Lambinon J.)
 Protection de la nature ? Conservation de l'environnement ? Sauvegarde de l'homme ? La conservation de la nature à son heure, à sa place et à sa mesure. L'Homme et la Nature, 1 : 3-17, 1971. (Lambinon J.)
 Une hépatique à rayer de la flore de Belgique et du Luxembourg : Bazzania tricrenata (Wahl.) Trevis. Natura Mosana, 24 : 25-26 [Trouvailles floristiques], 1971. (Lambinon J.)
 Astraeus hygrometricus (Pers.) Morg. (Gasteromycetes) sur des terrils charbonniers de la région du Centre. Bull. Soc. R. Bot. Belg., 104 : 373-375 [Notes brèves], 1971. (Empain A. &amp; Lambinon J.)
@@ -679,7 +695,7 @@
 Le groupe de Lepidium ruderale en Belgique et dans quelques régions voisines. Dumortiera, 2 : 27-32, 1975. (Duvigneaud J. &amp; Lambinon J.
 Bibliographie de l'Histoire naturelle en Belgique - B - Botanique, 1974. Suppl. à Natura Mosana, 28, n. 2, 57 pp., 1975. (Duvigneaud J. &amp; Lambinon J.)
 Le lichen Menegazzia terebrata (Hoffm.) Massal. en Belgique. Bull. Soc. R. Bot. Belg., 108 : 191-201, 1975. (Margot J., De Sloover J. R. &amp; Lambinon J.)
-Les Bryophytes aquatiques et subaquatiques en tant que bioindicateurs de la pollution des eaux douces. Bull. Soc. Bot. Fr., 121 [1974], Coll. Bryol. 1972 : 257-264, 1975. (Empain A. &amp; Lambinon J.)
+Les Bryophytes aquatiques et subaquatiques en tant que bioindicateurs de la pollution des eaux douces. Bull. Soc. Bot. Fr., 121 , Coll. Bryol. 1972 : 257-264, 1975. (Empain A. &amp; Lambinon J.)
 Documents pour une deuxième édition de la "Nouvelle Flore de la Belgique, du Grand-Duché de Luxembourg, du Nord de la France et des Régions voisines". Lejeunia, N. S., 78, 100 pp., 1976. (De Langhe J. E., Delvosalle L., Duvigneaud J., Lambinon J. &amp; Vanden Berghen C.)
 Les vallées ardennaises de la Houille et de la Hulle. Excursion de la Société Botanique de Liège le 31 août 1975. Lejeunia, N. S., 79, 32 pp., 1976. En particulier : pp. 11–14 : Demoulin V., Marchal A. &amp; Lambinon J. : Quelques champignons intéressants recueillis dans les vallées de la Houille et de la Hulle au cours de l'excursion du 31 août 1975; pp. 15–30 : Lambinon J. : Zoocécidies recueillies dans les vallées de la Houille et de la Hulle  au cours de l'excursion du 31 août 1975. (Duvigneaud J., Lambinon J., Demoulin V. &amp; Marchal A.)
 De La Forêt à une certaine philosophie de la conservation de la nature et du rôle de la recherche scientifique en la matière [Réponse et réflexions, in Controverse au sujet de la publication d'un ouvrage consacré à la Forêt]. Natura Mosana, 29 : 22-30, 1976. (Lambinon J.)
@@ -701,11 +717,11 @@
 La surveillance écologique des sites d'implantation des centrales nucléaires. Effets des rejets d'effluents sur l'écosystème mosan : acquis et perspectives. Ann. Assoc. Belge Radioprot., 2 : 201-216, 1977. (Lambinon J., Descy J.P., Empain A., Kirchmann R. &amp; Bonnijns- Van Gelder E.)
 Bibliographie de l'Histoire naturelle en Belgique - B - Botanique. 1976. Suppl. à Natura Mosana, 30, n. 3, 50 pp., 1977. (Duvigneaud  J. &amp; Lambinon J.)
 La végétation pionnière des rives exondées de l'étang de Thommen (province de Liège, Belgique). Notes phytosociologiques et floristiques. Nat. Belges, 58 : 286-294, 1977. (Schumacker R., Duvigneaud J., Lambinon J. &amp; De Zuttere Ph.)
-Contribution à l'étude des lichens du Kivu (Zaïre), du Rwanda et du Burundi. I. Introduction. Genres Everniopsis, Normandina et Placopsis. Bull. Jard. Bot. Nat. Belg., 47 : 459-471, 1977. (Lambinon J. &amp; Sérusiaux E.)[6]
+Contribution à l'étude des lichens du Kivu (Zaïre), du Rwanda et du Burundi. I. Introduction. Genres Everniopsis, Normandina et Placopsis. Bull. Jard. Bot. Nat. Belg., 47 : 459-471, 1977. (Lambinon J. &amp; Sérusiaux E.)
 Dix nouvelles stations de Pycnoporus cinnabarinus (Jacq. trans Fr.) Karst. (Poriaceae) en Haute Ardenne orientale. Dumortiera, 9 : 25-26, 1978. (Schumacker R. &amp; Lambinon J. (coll. De Zuttere Ph., Fabri R. &amp; Leclercq L.).
 Premier aperçu de la zonation de la végétation halo-gypsophile du lac Ghom (province de Téhéran, Iran). Lejeunia , N. S., 92, 20 pp., 4 fig. h.t., 1978. (Ghorbanli (Motamed) &amp; Lambinon J. (coll. de Leval J.).)
 Nouvelle Flore de la Belgique, du Grand-Duché de Luxembourg, du Nord de la France et des Régions voisines (Ptéridophytes et Spermatophytes). Deuxième édition. Meise, Jard. Bot. Nat. Belg.,CV + 900 pp., 1 carte h.t., 1978. (De Langhe J. E., Delvosalle L., Duvigneaud  J. &amp; Vanden Berghen C. (coll. Auquier P., D'hose R., Lawalrée A., Lebeau J., Schumacker R. &amp; Vannerom H.))
-In Troupin G., Flore du Rwanda, Spermatophytes, vol. I : 8. Salicaceae [125], 12. Urticaceae [150-166], 23. Aizoaceae [210-213], 27. Chenopodiaceae [228-232] , 28. Amaranthaceae [232-252], 49. Brassicaceae  [319-331]. Tervuren, Musée Royal Afrique Centrale, 1978. (Lambinon J. &amp; Troupin G.)
+In Troupin G., Flore du Rwanda, Spermatophytes, vol. I : 8. Salicaceae , 12. Urticaceae [150-166], 23. Aizoaceae [210-213], 27. Chenopodiaceae [228-232] , 28. Amaranthaceae [232-252], 49. Brassicaceae  [319-331]. Tervuren, Musée Royal Afrique Centrale, 1978. (Lambinon J. &amp; Troupin G.)
 Bibliographie de l'Histoire naturelle en Belgique - B - Botanique, 1977. Suppl. à Natura Mosana, 31, n. 3, 40 pp., 1978. (Duvigneaud  J. &amp; Lambinon J.)
 Collaboration à : Corrections et commentaires apportés aux exsiccata distribués dans les fascicules précédents . Soc. Ech. Pl. Vasc. Eur. Bass. Médit., Bull., 17 : 16-21, 1979. (Lambinon J.)
 Collaborations à : Notes brèves sur certaines centuries distribués dans le fascicule 17. Soc. Ech. Pl. Vasc. Eur. Bass. Médit., Bull., 17 : 41-48, 1979. (Lambinon J.)
@@ -734,7 +750,7 @@
 Le nom correct de la ficaire  à bulbilles : Ranunculus ficaria L. subsp. bulbilifer Lambinon nom. nov. Bull. Jard. Bot. Nat. Belg., 51 : 461-463 [Notulae] , 1981. (Lambinon J.)
 L'impact des rejets de la Centrale nucléaire de Tihange (Belgique) sur l'écosystème Meuse : cinq années d'étude in situ et d'approche expérimentale (1976-1980). BLG 555, 54 pp., 1982. (Lambinon J. - Collaboration à : De Clercq-Versele H. &amp; Kirchmann R., coordin.)
 Allium paniculatum L. signalé erronément en Lorraine française. Dumortiera, 23 : 32 [Notes floristiques], 1982. (Lambinon J.)
-Un in</t>
+Un inventaire de la qualité </t>
         </is>
       </c>
     </row>
@@ -762,25 +778,27 @@
           <t>Genres et espèces qui portent son nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Asplenium lambinonii Pic. Serm[9].
-Astragalus lambinonii Podlech[9]
-Byssoloma lambinonii (Sérusiaux) Sérusiaux[10]
-Cyanobotrys lambinonii L.Hoffmann[11]
-Eulophia lambinoniana Geerinck[9]
-Fellhanera lambinonii (Sérus.) Lücking &amp; Sérus[12].
-Festuca lambinonii Kergélen[13]
-Gyalideopsis lambinonii Vezda[14]
-Lambinonia Sérus. &amp; Diederich[9]
-Leptoscyphus lambinonii Vanderpoorten[15]
-Limonium lambinonii Erben[16]
-Lycoperdon lambinonii Demoulin[17]
-Opegrapha lambinonii Sérusiaux[18]
-Peltigera lambinonii Goffinet[19]
-Pertusaria lambinonii[20]
-Plectocarpon lambinonii[21]
-Taraxacum lambinonii Soest (pissenlit de Lambinon)[22]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Asplenium lambinonii Pic. Serm.
+Astragalus lambinonii Podlech
+Byssoloma lambinonii (Sérusiaux) Sérusiaux
+Cyanobotrys lambinonii L.Hoffmann
+Eulophia lambinoniana Geerinck
+Fellhanera lambinonii (Sérus.) Lücking &amp; Sérus.
+Festuca lambinonii Kergélen
+Gyalideopsis lambinonii Vezda
+Lambinonia Sérus. &amp; Diederich
+Leptoscyphus lambinonii Vanderpoorten
+Limonium lambinonii Erben
+Lycoperdon lambinonii Demoulin
+Opegrapha lambinonii Sérusiaux
+Peltigera lambinonii Goffinet
+Pertusaria lambinonii
+Plectocarpon lambinonii
+Taraxacum lambinonii Soest (pissenlit de Lambinon)</t>
         </is>
       </c>
     </row>
@@ -808,10 +826,12 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fils de Alphonse Victor Léon Joseph Lambinon (1900-1982) et de Léona Ghislaine Madeleine Radelet (1911-1981)
-Marié à Clémence Adam, fondatrice et ancienne présidente de la Fédération des Restos du Cœur de Belgique, ancienne présidente du Resto du Cœur de Liège[23], Citoyenne d'Honneur de la Ville de Liège[24].</t>
+Marié à Clémence Adam, fondatrice et ancienne présidente de la Fédération des Restos du Cœur de Belgique, ancienne présidente du Resto du Cœur de Liège, Citoyenne d'Honneur de la Ville de Liège.</t>
         </is>
       </c>
     </row>
